--- a/hamming_distance.xlsx
+++ b/hamming_distance.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -512,22 +512,22 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -550,31 +550,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -750,63 +750,63 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -835,10 +835,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -906,36 +906,36 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1000,31 +1000,31 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1088,22 +1088,22 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1141,25 +1141,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1203,31 +1203,31 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1250,31 +1250,31 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1438,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1456,19 +1456,19 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1477,18 +1477,18 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1580,15 +1580,15 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1662,25 +1662,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1753,16 +1753,16 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1791,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1818,19 +1818,19 @@
         <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1838,16 +1838,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1965,45 +1965,45 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2024,18 +2024,18 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2115,22 +2115,22 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2144,25 +2144,25 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -2171,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2194,37 +2194,37 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2265,19 +2265,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -2294,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2309,22 +2309,22 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -2374,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2388,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -2409,39 +2409,39 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2468,19 +2468,19 @@
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2491,43 +2491,43 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -2553,28 +2553,28 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2588,22 +2588,22 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2612,25 +2612,25 @@
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2638,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2668,19 +2668,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2709,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2744,19 +2744,19 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -2774,21 +2774,21 @@
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -2824,30 +2824,30 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2859,16 +2859,16 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -2894,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2915,19 +2915,19 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -2959,13 +2959,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3059,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3080,30 +3080,30 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -3121,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -3156,31 +3156,31 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3250,25 +3250,25 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3277,15 +3277,15 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3324,39 +3324,39 @@
         <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
@@ -3380,33 +3380,33 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3415,19 +3415,19 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3441,22 +3441,22 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3500,25 +3500,25 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3535,49 +3535,49 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3630,18 +3630,18 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -3700,37 +3700,37 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3756,19 +3756,19 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
@@ -3777,42 +3777,42 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>1</v>
@@ -3835,16 +3835,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3856,13 +3856,13 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3921,13 +3921,13 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -3941,22 +3941,22 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -3965,22 +3965,22 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -4006,25 +4006,25 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -4047,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4062,22 +4062,22 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4085,37 +4085,37 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -4127,15 +4127,15 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -4147,37 +4147,37 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -4209,25 +4209,25 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -4253,16 +4253,16 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4285,16 +4285,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -4309,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -4350,16 +4350,16 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -4368,33 +4368,33 @@
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -4412,13 +4412,13 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4427,27 +4427,27 @@
         <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -4456,19 +4456,19 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -4500,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4512,25 +4512,25 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4571,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -4588,13 +4588,13 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
@@ -4641,34 +4641,34 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -4694,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
         <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -4759,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -4774,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4788,16 +4788,16 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
         <v>1</v>
@@ -4838,22 +4838,22 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -4918,19 +4918,19 @@
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4938,22 +4938,22 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4962,22 +4962,22 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -4985,28 +4985,28 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -5044,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -5062,25 +5062,25 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
         <v>1</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -5094,13 +5094,13 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5109,48 +5109,48 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5180,12 +5180,12 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -5224,30 +5224,30 @@
         <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -5256,28 +5256,28 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -5294,16 +5294,16 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5312,16 +5312,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
@@ -5330,18 +5330,18 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5391,19 +5391,19 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -5412,19 +5412,19 @@
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -5456,22 +5456,22 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
